--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\source\repos\IceRescue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\IceRescue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C62480-54AE-478D-BDCC-91B3A8711F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2AA043-CBC5-40B4-93FA-AA432E6E4546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
   </bookViews>
   <sheets>
     <sheet name="本編" sheetId="1" r:id="rId1"/>
-    <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
-    <sheet name="敵" sheetId="3" r:id="rId3"/>
-    <sheet name="オブジェクト" sheetId="4" r:id="rId4"/>
+    <sheet name="Player" sheetId="2" r:id="rId2"/>
+    <sheet name="Enemy" sheetId="3" r:id="rId3"/>
+    <sheet name="Obj" sheetId="4" r:id="rId4"/>
     <sheet name="ゲーム要素" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,16 +31,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>救え！こおりの仲間たち</t>
     <rPh sb="0" eb="1">
@@ -324,6 +325,20 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +426,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,14 +933,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -937,8 +955,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="1447800"/>
-          <a:ext cx="647700" cy="590550"/>
+          <a:off x="4829175" y="1685925"/>
+          <a:ext cx="628650" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1143,15 +1161,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1165,9 +1183,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="1438275"/>
-          <a:ext cx="1352550" cy="76200"/>
+        <a:xfrm flipV="1">
+          <a:off x="4819650" y="1514475"/>
+          <a:ext cx="1362075" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1319,15 +1337,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1342,8 +1360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4914900" y="1485900"/>
-          <a:ext cx="1895475" cy="923925"/>
+          <a:off x="4819650" y="1485901"/>
+          <a:ext cx="1990725" cy="1419224"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1716,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B00DCD-B91C-491E-A37C-FAA9494EE04E}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1751,35 +1769,43 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1789,39 +1815,36 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1830,17 +1853,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1848,25 +1874,34 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED32DD-4F57-4A46-8F61-B23F2B1F7EAF}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1898,58 +1933,61 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="J7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1958,8 +1996,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1972,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F81CE-7C93-4E02-9C8B-B01EB4257574}">
-  <dimension ref="B2:K11"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2007,49 +2056,67 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="K6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C10" s="3" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C11" s="3" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\IceRescue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2AA043-CBC5-40B4-93FA-AA432E6E4546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48419F76-D564-4E1E-8E01-7822AD4130AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
+    <workbookView xWindow="1440" yWindow="795" windowWidth="19410" windowHeight="13380" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
   </bookViews>
   <sheets>
     <sheet name="本編" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -41,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>救え！こおりの仲間たち</t>
     <rPh sb="0" eb="1">
@@ -309,26 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>動きのパターン</t>
-    <rPh sb="0" eb="1">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動きのパターン切り替え</t>
-    <rPh sb="0" eb="1">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移動速度</t>
     <rPh sb="0" eb="4">
       <t>イドウソクド</t>
@@ -339,6 +310,113 @@
     <t>半径</t>
     <rPh sb="0" eb="2">
       <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に移動</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふよふよしながら左右に移動</t>
+    <rPh sb="8" eb="10">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマノミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウミガメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽い</t>
+    <rPh sb="0" eb="1">
+      <t>カル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重い</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Turtle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Squid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clownfish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面効果</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こだわりポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうさせん、画面をブラウン管みたいに丸みを帯びる、攻撃食らったとき画面を揺らす</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -453,13 +531,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30691</xdr:colOff>
+      <xdr:colOff>116416</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -490,7 +568,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716491" y="4200525"/>
+          <a:off x="802216" y="4200525"/>
           <a:ext cx="4284133" cy="2409825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -932,9 +1010,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -955,8 +1033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="1685925"/>
-          <a:ext cx="628650" cy="323850"/>
+          <a:off x="4838700" y="1800225"/>
+          <a:ext cx="619125" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -990,16 +1068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>647701</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1013,9 +1091,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6162675" y="2047875"/>
-          <a:ext cx="1343025" cy="9525"/>
+        <a:xfrm flipH="1">
+          <a:off x="6267450" y="2057401"/>
+          <a:ext cx="1238251" cy="9524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1707,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558A6F4-A66F-4C07-A983-97158EA96650}">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1720,9 +1798,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="30" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1833,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1771,7 +1867,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1780,7 +1876,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1898,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED32DD-4F57-4A46-8F61-B23F2B1F7EAF}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1935,7 +2031,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1944,7 +2040,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1975,19 +2071,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>35</v>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1996,35 +2098,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>36</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F81CE-7C93-4E02-9C8B-B01EB4257574}">
-  <dimension ref="B2:K13"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2058,7 +2175,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2067,7 +2184,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2118,6 +2235,33 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2276,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\IceRescue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48419F76-D564-4E1E-8E01-7822AD4130AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6188AC-8B24-461B-86EF-552392B499E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="795" windowWidth="19410" windowHeight="13380" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
   </bookViews>
   <sheets>
     <sheet name="本編" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558A6F4-A66F-4C07-A983-97158EA96650}">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B00DCD-B91C-491E-A37C-FAA9494EE04E}">
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\source\repos\IceRescue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\Stealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EE6823-710E-4BF9-A40B-E572F48D87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A67A63-9002-49C5-90DE-9DB9367FF078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
+    <workbookView xWindow="15420" yWindow="4290" windowWidth="28800" windowHeight="11295" activeTab="3" xr2:uid="{09C5898A-1FAC-4130-8D23-D77D5BC0504D}"/>
   </bookViews>
   <sheets>
     <sheet name="本編" sheetId="1" r:id="rId1"/>
     <sheet name="Player" sheetId="2" r:id="rId2"/>
     <sheet name="Enemy" sheetId="3" r:id="rId3"/>
+    <sheet name="Element" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>救え！こおりの仲間たち</t>
-    <rPh sb="0" eb="1">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナカマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>変数</t>
     <rPh sb="0" eb="2">
@@ -109,6 +103,92 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <rPh sb="0" eb="2">
+      <t>ハンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回経路</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンカイケイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の巡回経路インデックス</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジュンカイケイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが見えたか判定</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回経路の設定</t>
+    <rPh sb="0" eb="4">
+      <t>ジュンカイケイロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール座標</t>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁との判定</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,15 +293,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -271,15 +351,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -331,15 +411,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>87511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>388740</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -394,15 +474,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>439461</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -457,15 +537,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>135137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>398266</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -520,15 +600,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>272120</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>166034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>148295</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>33994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -583,15 +663,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>87511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>645915</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -646,15 +726,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>615018</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>23157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>491193</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>129242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -709,15 +789,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -769,15 +849,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -829,15 +909,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -854,6 +934,2088 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4191000" y="4895850"/>
+          <a:ext cx="1343025" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ゴール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5C6742-35E9-4047-9B8B-97AD926498D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="142875"/>
+          <a:ext cx="2952750" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46467D5-EC4B-4BB4-85E8-0AAAA23D33DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="9515475"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151AAA61-A478-4862-9CF8-B65873D3E886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629276" y="8564761"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439461</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB549926-F2FF-44CB-8282-B94C03EC8071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5581651" y="8105774"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398266</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FAC77D-082C-43E5-A7E1-D5AA2645DFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961368">
+          <a:off x="3581402" y="5993012"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148295</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A18E6A-AB40-41C5-B5F8-D076746F583C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6361368" flipV="1">
+          <a:off x="3810003" y="5915026"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D532DD-96CC-45BC-B663-8111E75C9ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200651" y="6897886"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="二等辺三角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD093F7-F839-45C6-AB13-87972BA8DDEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4838701" y="6724649"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F17A53-1E07-4D73-BBFB-2B94D0D39CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="7848601"/>
+          <a:ext cx="1266825" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCA75D8-F2F0-449A-9C4D-F9E3E524BBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="5648325"/>
+          <a:ext cx="962025" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F14D1DA-D3CD-457A-9741-F5D7FCFC4290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="4895850"/>
+          <a:ext cx="1343025" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ゴール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19755CDD-7EFC-45C6-B535-299BEE94F94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="142875"/>
+          <a:ext cx="2952750" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF688F1-C9B1-408C-AF46-5638B1162D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="4848225"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144C60A0-0017-4D75-A7F2-9143267B4088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372476" y="3897511"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439461</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="二等辺三角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEAFF8F-02E2-4917-98D4-19B2EA057566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8324851" y="3438524"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398266</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5706CE34-CDAF-4D6B-8B69-536DBB31EBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961368">
+          <a:off x="6324602" y="1325762"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148295</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="二等辺三角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335879BA-7603-4137-8570-DAB79093F0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6361368" flipV="1">
+          <a:off x="6553203" y="1247776"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77562F62-D670-44E8-8FC4-801C35084D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943851" y="2230636"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="二等辺三角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237F4C2C-9E20-426C-A4DF-5F1EFB4DFF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7581901" y="2057399"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3578BC-4BBD-488D-AC63-025C9BB7CD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="3181351"/>
+          <a:ext cx="1266825" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D780E9C8-ED79-4C70-8735-131D2E8F2695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="981075"/>
+          <a:ext cx="962025" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC52D747-4A03-487F-9F62-F6D0697AC6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="228600"/>
+          <a:ext cx="1343025" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ゴール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5A2F12-0FD2-48C0-9591-33082B8F9376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="142875"/>
+          <a:ext cx="2952750" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E526D027-436D-40B8-B437-E38A2FF3BFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="4848225"/>
+          <a:ext cx="333375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BBAFA9-FD0F-4566-8861-8755DBF527E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372476" y="3897511"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439461</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="二等辺三角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F73F73-0C06-4D55-BC91-FD59B48948CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8324851" y="3438524"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>398266</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A05D6B-40E7-4469-A3ED-82A97E129261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="961368">
+          <a:off x="6324602" y="1325762"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148295</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="二等辺三角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104FB8E6-8870-46A9-A88B-6A6BAF5E3598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6361368" flipV="1">
+          <a:off x="6553203" y="1247776"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F659B7C-D191-4F2C-8B26-FC28C7726561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943851" y="2230636"/>
+          <a:ext cx="245864" cy="245864"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="二等辺三角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F8866-3C5E-429A-B98D-780D73530853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7581901" y="2057399"/>
+          <a:ext cx="344210" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7B8235-004A-43C8-B097-D0842DFB6C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="3181351"/>
+          <a:ext cx="1266825" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90151F2F-CA1A-4ACA-B6B5-5018C7EB75E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="981075"/>
+          <a:ext cx="962025" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8BF8BF-7FEE-4E2A-BB9C-677FB29E51E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="228600"/>
           <a:ext cx="1343025" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,19 +3382,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558A6F4-A66F-4C07-A983-97158EA96650}">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" ht="30" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
     </row>
@@ -1245,176 +3402,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B00DCD-B91C-491E-A37C-FAA9494EE04E}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED32DD-4F57-4A46-8F61-B23F2B1F7EAF}">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M6" s="4"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C8" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C12" s="3" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C13" s="3" t="s">
-        <v>5</v>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B943A84-14B2-4C2F-8C7D-0DBF879730FF}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>